--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ducat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Question of java\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1859,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1926,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1948,7 +1948,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
